--- a/supp_files/TableS5_CRISPR.xlsx
+++ b/supp_files/TableS5_CRISPR.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gzhang/Nextcloud/Nema_QTL_eri6_fusion/git/Ce-eri-67/sciAd/revision/rev_0525/suppTable/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gzhang/Documents/GitHub/Ce-eri-67/supp_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9094F3DE-DD56-0A49-96F4-5D4884881EF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26BFC7BC-BF23-7C44-A400-B95431812C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-3860" windowWidth="38400" windowHeight="23500" activeTab="1" xr2:uid="{B176F18A-CB43-A84D-AAFC-FDCA388A52EA}"/>
+    <workbookView xWindow="-22420" yWindow="-3860" windowWidth="38400" windowHeight="23500" activeTab="1" xr2:uid="{B176F18A-CB43-A84D-AAFC-FDCA388A52EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Oligos" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
   <si>
     <t>oECA2298</t>
   </si>
@@ -264,13 +264,61 @@
   </si>
   <si>
     <t>ECA3096 with eri-6[e] R321Q</t>
+  </si>
+  <si>
+    <t>ean230</t>
+  </si>
+  <si>
+    <t>ean231</t>
+  </si>
+  <si>
+    <t>ean232</t>
+  </si>
+  <si>
+    <t>ean233</t>
+  </si>
+  <si>
+    <t>ean234</t>
+  </si>
+  <si>
+    <t>ean235</t>
+  </si>
+  <si>
+    <t>ean236</t>
+  </si>
+  <si>
+    <t>ean237</t>
+  </si>
+  <si>
+    <t>ean272</t>
+  </si>
+  <si>
+    <t>ean273</t>
+  </si>
+  <si>
+    <t>ean274</t>
+  </si>
+  <si>
+    <t>ean275</t>
+  </si>
+  <si>
+    <t>ean276</t>
+  </si>
+  <si>
+    <t>ean277</t>
+  </si>
+  <si>
+    <t>ean278</t>
+  </si>
+  <si>
+    <t>ean279</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -308,6 +356,12 @@
       <name val="Helvetica"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -329,7 +383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -356,6 +410,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -847,7 +902,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="127" zoomScaleNormal="127" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="B2" sqref="B2:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -885,10 +940,13 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="28" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>22</v>
       </c>
+      <c r="B2" s="12" t="s">
+        <v>76</v>
+      </c>
       <c r="C2" s="7" t="s">
         <v>68</v>
       </c>
@@ -905,10 +963,13 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>27</v>
       </c>
+      <c r="B3" s="12" t="s">
+        <v>77</v>
+      </c>
       <c r="C3" s="7" t="s">
         <v>69</v>
       </c>
@@ -925,10 +986,13 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="28" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>26</v>
       </c>
+      <c r="B4" s="12" t="s">
+        <v>78</v>
+      </c>
       <c r="C4" s="7" t="s">
         <v>69</v>
       </c>
@@ -945,10 +1009,13 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="28" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>23</v>
       </c>
+      <c r="B5" s="12" t="s">
+        <v>79</v>
+      </c>
       <c r="C5" s="7" t="s">
         <v>68</v>
       </c>
@@ -965,10 +1032,13 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="28" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>28</v>
       </c>
+      <c r="B6" s="12" t="s">
+        <v>80</v>
+      </c>
       <c r="C6" s="7" t="s">
         <v>70</v>
       </c>
@@ -985,10 +1055,13 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="28" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
         <v>29</v>
       </c>
+      <c r="B7" s="12" t="s">
+        <v>81</v>
+      </c>
       <c r="C7" s="7" t="s">
         <v>70</v>
       </c>
@@ -1005,10 +1078,13 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="28" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>24</v>
       </c>
+      <c r="B8" s="12" t="s">
+        <v>82</v>
+      </c>
       <c r="C8" s="7" t="s">
         <v>71</v>
       </c>
@@ -1025,10 +1101,13 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="28" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
         <v>25</v>
       </c>
+      <c r="B9" s="12" t="s">
+        <v>83</v>
+      </c>
       <c r="C9" s="7" t="s">
         <v>71</v>
       </c>
@@ -1045,10 +1124,13 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="28" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
         <v>38</v>
       </c>
+      <c r="B10" s="12" t="s">
+        <v>84</v>
+      </c>
       <c r="C10" s="7" t="s">
         <v>72</v>
       </c>
@@ -1065,10 +1147,13 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="28" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
         <v>39</v>
       </c>
+      <c r="B11" s="12" t="s">
+        <v>85</v>
+      </c>
       <c r="C11" s="7" t="s">
         <v>72</v>
       </c>
@@ -1085,10 +1170,13 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="28" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
         <v>40</v>
       </c>
+      <c r="B12" s="12" t="s">
+        <v>86</v>
+      </c>
       <c r="C12" s="7" t="s">
         <v>73</v>
       </c>
@@ -1105,10 +1193,13 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="28" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
         <v>41</v>
       </c>
+      <c r="B13" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="C13" s="7" t="s">
         <v>73</v>
       </c>
@@ -1125,10 +1216,13 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="28" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
         <v>42</v>
       </c>
+      <c r="B14" s="12" t="s">
+        <v>88</v>
+      </c>
       <c r="C14" s="7" t="s">
         <v>74</v>
       </c>
@@ -1145,10 +1239,13 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="28" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
         <v>43</v>
       </c>
+      <c r="B15" s="12" t="s">
+        <v>89</v>
+      </c>
       <c r="C15" s="7" t="s">
         <v>74</v>
       </c>
@@ -1165,10 +1262,13 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="28" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
         <v>44</v>
       </c>
+      <c r="B16" s="12" t="s">
+        <v>90</v>
+      </c>
       <c r="C16" s="7" t="s">
         <v>75</v>
       </c>
@@ -1185,9 +1285,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="28" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
         <v>45</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>91</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>75</v>
